--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="JoinUsData" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="CharitiesPageData" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="CategoriesPageData" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="SubCategoryPageData" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t xml:space="preserve">fjy</t>
   </si>
@@ -109,14 +110,21 @@
   </si>
   <si>
     <t xml:space="preserve">OnlineSales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auto_SubCategory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -190,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,6 +229,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -307,9 +319,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -368,9 +377,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,7 +422,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,6 +512,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -561,9 +573,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -611,8 +620,57 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -621,25 +679,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>27</v>
+      <c r="C1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="CharitiesPageData" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="CategoriesPageData" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="SubCategoryPageData" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="AllMerchantsPageData" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -319,6 +320,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -377,9 +381,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,7 +426,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,7 +517,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,6 +577,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -625,9 +632,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
@@ -669,13 +673,13 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,7 +706,8 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="b">
+      <c r="D2" s="8" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -715,4 +720,30 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>